--- a/Testplan.xlsx
+++ b/Testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kti\Documents\GitLab\PokerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DEB90D-1C14-4740-8FEF-E2C9ED239400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C38D3B3-5E9C-44AD-9FDE-E9EDF07E8EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A2A03FB-A6AD-48A1-96A2-95A0811A3F0D}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>Spiel 10x durchspielen und kontrollieren ob der Gewinner wie erwartet ist</t>
   </si>
   <si>
-    <t>Spiel wird bei Falscheingabe abebrochen</t>
-  </si>
-  <si>
     <t>Spiel starten und absichtlich eine Falsche antwort eingeben. Prüfen ob das Spiel endet</t>
+  </si>
+  <si>
+    <t>Spiel wird bei Falscheingabe abgebrochen</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +496,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/Testplan.xlsx
+++ b/Testplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kti\Documents\GitLab\PokerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C38D3B3-5E9C-44AD-9FDE-E9EDF07E8EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6716C-3AEC-4784-A74C-F50F5F30CBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A2A03FB-A6AD-48A1-96A2-95A0811A3F0D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Test index</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Spiel wird bei Falscheingabe abgebrochen</t>
+  </si>
+  <si>
+    <t>auswertung</t>
+  </si>
+  <si>
+    <t>funktioniert wie geplant</t>
+  </si>
+  <si>
+    <t>Wir hetten zuerst ein wenig Probleme, konnten diese jedoch dannach beheben</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A99DFD6-6083-4BDC-8959-583FCFE6AFD4}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,9 +454,10 @@
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="65.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +467,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -468,8 +481,11 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -479,8 +495,11 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -490,8 +509,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -501,52 +523,55 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
